--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/24.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/24.xlsx
@@ -479,13 +479,13 @@
         <v>-20.20191339796768</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.1560551614554</v>
+        <v>-14.16209071306544</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5223332280125953</v>
+        <v>-0.5172926914185307</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.4516797185089</v>
+        <v>-10.45971839245372</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-19.6016406466465</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.36348960767971</v>
+        <v>-14.36893600566187</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5150277230269121</v>
+        <v>-0.5092932943822361</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.2063430555578</v>
+        <v>-10.21385803738895</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-18.90469668412961</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.67884390622837</v>
+        <v>-14.68478781171851</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4361858753140378</v>
+        <v>-0.4309096772688222</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.781916782034724</v>
+        <v>-9.790086379007962</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-18.2190031536826</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.13605330606712</v>
+        <v>-15.14258636518515</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3781084199081409</v>
+        <v>-0.3720597759952635</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.563995401234193</v>
+        <v>-9.572518490384157</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-17.54251326941716</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.57989546470448</v>
+        <v>-15.58688675442196</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3609575031854798</v>
+        <v>-0.3551968899351203</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.373292918041612</v>
+        <v>-9.382156407065461</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.90999134417687</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.05239667426238</v>
+        <v>-16.06048771741856</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3830573103823134</v>
+        <v>-0.3755423285511626</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.232301908739064</v>
+        <v>-9.241113028551545</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.32698836818898</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.55465668817951</v>
+        <v>-16.56367728483746</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1635517609379341</v>
+        <v>-0.1568092249744452</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.030078199045763</v>
+        <v>-9.038850041949718</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.78880079431501</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.17419755095283</v>
+        <v>-17.18440954716938</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0349406424454748</v>
+        <v>0.04254727039651764</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.053251575075619</v>
+        <v>-9.062167433310833</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.29683262825827</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.59459139520066</v>
+        <v>-17.60549728346781</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1616872262562249</v>
+        <v>0.1683512084026634</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.739992044981639</v>
+        <v>-8.748541318737285</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-14.82074424939748</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.12225047663074</v>
+        <v>-18.13402045688545</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2875566257765793</v>
+        <v>0.2942337002258596</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.662354689130202</v>
+        <v>-8.671244362759735</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.35332368103093</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.64311465288597</v>
+        <v>-18.6551726638032</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3675636884423673</v>
+        <v>0.3751048548792015</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.160291059755691</v>
+        <v>-8.169298564110798</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-13.856705451031</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.4030704636368</v>
+        <v>-19.41571762818191</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5025715153462466</v>
+        <v>0.5106756508052749</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.567288294842551</v>
+        <v>-7.577421737242047</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-13.32795419848383</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.22801646569396</v>
+        <v>-20.24072909175328</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7404717502832509</v>
+        <v>0.7494923469412001</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.986971971383043</v>
+        <v>-6.998493197883762</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.75692291479012</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.0229287250322</v>
+        <v>-21.03596865866256</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8203478899206216</v>
+        <v>0.8297350710581393</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.437553482630008</v>
+        <v>-6.450279200992166</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-12.14729544586922</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.91209247252803</v>
+        <v>-21.92477891398166</v>
       </c>
       <c r="F16" t="n">
-        <v>1.065043030032482</v>
+        <v>1.074796795649568</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.941329020322907</v>
+        <v>-5.953138277486144</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.52020686617085</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.55230608148843</v>
+        <v>-22.56469139997671</v>
       </c>
       <c r="F17" t="n">
-        <v>1.241933133727043</v>
+        <v>1.251844006978229</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.818758881118668</v>
+        <v>-5.830960907367157</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-10.88503442188862</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.33235857710131</v>
+        <v>-23.34509738776631</v>
       </c>
       <c r="F18" t="n">
-        <v>1.562118492024295</v>
+        <v>1.573089841805662</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.420779059335879</v>
+        <v>-5.432954900978684</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.27638653324788</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.13003331233916</v>
+        <v>-24.14336127663204</v>
       </c>
       <c r="F19" t="n">
-        <v>1.812888460654717</v>
+        <v>1.824016918070184</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.169027167992328</v>
+        <v>-5.180640040612939</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.704064024969624</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.88162314157412</v>
+        <v>-24.89496419816984</v>
       </c>
       <c r="F20" t="n">
-        <v>2.037081054516434</v>
+        <v>2.048183327326218</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.929163087629065</v>
+        <v>-4.94217683665374</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-9.198649877699554</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.46076115777788</v>
+        <v>-25.47416767588781</v>
       </c>
       <c r="F21" t="n">
-        <v>2.393296430234117</v>
+        <v>2.403979749352965</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.676638750417852</v>
+        <v>-4.688801499757816</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-8.768193227374592</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.03711051347634</v>
+        <v>-26.05062177000901</v>
       </c>
       <c r="F22" t="n">
-        <v>2.684704906885255</v>
+        <v>2.6944455801995</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.385479027520706</v>
+        <v>-4.399252130110202</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-8.423986515390229</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.5390955890338</v>
+        <v>-26.55200459963574</v>
       </c>
       <c r="F23" t="n">
-        <v>2.881560772413449</v>
+        <v>2.891144338093592</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.23388325291636</v>
+        <v>-4.247132663392187</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-8.171901421722323</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.75433304775178</v>
+        <v>-26.76739916598782</v>
       </c>
       <c r="F24" t="n">
-        <v>3.007901494836105</v>
+        <v>3.017563614333299</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.05426995023072</v>
+        <v>-4.067702652946331</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-8.000437818298067</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.05955390390094</v>
+        <v>-27.0721879761432</v>
       </c>
       <c r="F25" t="n">
-        <v>3.314575596600696</v>
+        <v>3.324368639126308</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.800986259454687</v>
+        <v>-3.81397382387368</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-7.908314984287404</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.02763486957281</v>
+        <v>-27.04019038799803</v>
       </c>
       <c r="F26" t="n">
-        <v>3.392186767846449</v>
+        <v>3.402896271570981</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.760059720771452</v>
+        <v>-3.77354479269843</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.870098497247398</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.95807546457472</v>
+        <v>-26.97019893700616</v>
       </c>
       <c r="F27" t="n">
-        <v>3.404703009363139</v>
+        <v>3.414731713339901</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.705700479372605</v>
+        <v>-3.717745397986993</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.877145366265448</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.8709985583744</v>
+        <v>-26.88351479989109</v>
       </c>
       <c r="F28" t="n">
-        <v>3.470085969754719</v>
+        <v>3.479172027926877</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.706093248457857</v>
+        <v>-3.717195521267641</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.902288306599628</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.72809607285696</v>
+        <v>-26.73983986850599</v>
       </c>
       <c r="F29" t="n">
-        <v>3.48147627322702</v>
+        <v>3.490300485342344</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.633077475509551</v>
+        <v>-3.643669148508507</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.932337856279862</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.61318493081513</v>
+        <v>-26.62457523428743</v>
       </c>
       <c r="F30" t="n">
-        <v>3.455815359657238</v>
+        <v>3.463854033602057</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.592726998151351</v>
+        <v>-3.603253209636099</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.953299101939508</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.20996818789565</v>
+        <v>-26.22090026076849</v>
       </c>
       <c r="F31" t="n">
-        <v>3.351076936923429</v>
+        <v>3.35867047257163</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.783115266075732</v>
+        <v>-3.792541724121774</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.951104992580678</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.87891621823977</v>
+        <v>-25.88935078360462</v>
       </c>
       <c r="F32" t="n">
-        <v>3.303944646693215</v>
+        <v>3.311119228650481</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.873242678838174</v>
+        <v>-3.882551306158641</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.92829710065002</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.45994943500169</v>
+        <v>-25.47038400036655</v>
       </c>
       <c r="F33" t="n">
-        <v>3.18383586042322</v>
+        <v>3.190853334746385</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.027614021644966</v>
+        <v>-4.034526757545398</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.877687798397248</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.00454677295509</v>
+        <v>-25.01464093844606</v>
       </c>
       <c r="F34" t="n">
-        <v>3.104208474539842</v>
+        <v>3.110676072143655</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.948824543143458</v>
+        <v>-3.954624433302343</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.812209340187009</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.65028215036083</v>
+        <v>-24.65978716222392</v>
       </c>
       <c r="F35" t="n">
-        <v>2.850034507170572</v>
+        <v>2.856659212408486</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.049006844488346</v>
+        <v>-4.053759350419893</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.732388803796788</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.95563074618453</v>
+        <v>-23.96520121956183</v>
       </c>
       <c r="F36" t="n">
-        <v>2.731208766579067</v>
+        <v>2.736759902983958</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.365971496286535</v>
+        <v>-4.370200310104412</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.652939487750372</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.52626867449012</v>
+        <v>-23.53530236345091</v>
       </c>
       <c r="F37" t="n">
-        <v>2.575776947242094</v>
+        <v>2.581589929703821</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.444839528605092</v>
+        <v>-4.448151881224049</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.581497580338461</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.15305948968387</v>
+        <v>-23.1616349480452</v>
       </c>
       <c r="F38" t="n">
-        <v>2.518485030006701</v>
+        <v>2.524140904834327</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.55086099701739</v>
+        <v>-4.55457921102444</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.523897136985356</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.67690552763314</v>
+        <v>-22.68521913993763</v>
       </c>
       <c r="F39" t="n">
-        <v>2.478317844888286</v>
+        <v>2.484104642744329</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.485242375174659</v>
+        <v>-4.488266697131098</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.492870066029518</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.31815024516416</v>
+        <v>-22.32618891910898</v>
       </c>
       <c r="F40" t="n">
-        <v>2.459517298007567</v>
+        <v>2.466482403119366</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.540308600926958</v>
+        <v>-4.542573569318577</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.486614829777666</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.80296812834224</v>
+        <v>-21.81084969465296</v>
       </c>
       <c r="F41" t="n">
-        <v>2.545062404775405</v>
+        <v>2.551268156322383</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.471639472522106</v>
+        <v>-4.473878256308041</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.518193155743204</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.18635994140547</v>
+        <v>-21.1935868925741</v>
       </c>
       <c r="F42" t="n">
-        <v>2.671115096535544</v>
+        <v>2.67700663281432</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.48251917618358</v>
+        <v>-4.484941252209299</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.581714372844767</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.5349262289097</v>
+        <v>-20.54202225704992</v>
       </c>
       <c r="F43" t="n">
-        <v>2.781745055548129</v>
+        <v>2.787715145643956</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.475593347980307</v>
+        <v>-4.478552208422537</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.685213770657572</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.28207458412745</v>
+        <v>-20.28876475087957</v>
       </c>
       <c r="F44" t="n">
-        <v>2.732832212131441</v>
+        <v>2.738330979324965</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.559855409069656</v>
+        <v>-4.56246077733516</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.825254140936489</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.84473930000243</v>
+        <v>-19.85090577464088</v>
       </c>
       <c r="F45" t="n">
-        <v>2.809003230064603</v>
+        <v>2.81505187397748</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.544066091842534</v>
+        <v>-4.546278691022786</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.00233812687201</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.49173153848097</v>
+        <v>-19.4981729514791</v>
       </c>
       <c r="F46" t="n">
-        <v>2.850610568495608</v>
+        <v>2.856502104774385</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.649891175712206</v>
+        <v>-4.650676713882709</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.220977524233108</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.01142731642941</v>
+        <v>-19.01717483737692</v>
       </c>
       <c r="F47" t="n">
-        <v>2.883550802445391</v>
+        <v>2.889180492667333</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.962378259938523</v>
+        <v>-4.962692475206725</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.471689078124731</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.5558020852345</v>
+        <v>-18.56134012933655</v>
       </c>
       <c r="F48" t="n">
-        <v>2.850165430198989</v>
+        <v>2.855376166729997</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.088993920720856</v>
+        <v>-5.089190305263482</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.761333025869179</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.08391621391016</v>
+        <v>-18.09038381151398</v>
       </c>
       <c r="F49" t="n">
-        <v>2.879230342507622</v>
+        <v>2.884310156010211</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.340902919698507</v>
+        <v>-5.341505165629227</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.076000836380997</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.59714439425479</v>
+        <v>-17.6032977765904</v>
       </c>
       <c r="F50" t="n">
-        <v>2.929373862391432</v>
+        <v>2.935474875515677</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.435390069307245</v>
+        <v>-5.434028469811706</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.41910734511065</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.90652541935374</v>
+        <v>-16.91296683235187</v>
       </c>
       <c r="F51" t="n">
-        <v>2.906226670967261</v>
+        <v>2.912772822388124</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.652381896606013</v>
+        <v>-5.650967927899107</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.777069460957517</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.53101198924735</v>
+        <v>-16.5372701100057</v>
       </c>
       <c r="F52" t="n">
-        <v>2.788238837757625</v>
+        <v>2.794182743247769</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.793490736634136</v>
+        <v>-5.793726398085288</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.14646481147347</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.10675591566122</v>
+        <v>-16.11339371320198</v>
       </c>
       <c r="F53" t="n">
-        <v>2.85752330439604</v>
+        <v>2.863100625406615</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852890514627047</v>
+        <v>-5.852811960809997</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.52242420168088</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.82964423371325</v>
+        <v>-15.8371592155444</v>
       </c>
       <c r="F54" t="n">
-        <v>2.615158594190007</v>
+        <v>2.620500253749431</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.088473411961067</v>
+        <v>-6.087753335304772</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.8908113846379</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.49122129755747</v>
+        <v>-15.49927306380513</v>
       </c>
       <c r="F55" t="n">
-        <v>2.453337731066272</v>
+        <v>2.458836498259797</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.303959624433036</v>
+        <v>-6.302440917303396</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.2570330625812</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.08299020264961</v>
+        <v>-15.09190606088482</v>
       </c>
       <c r="F56" t="n">
-        <v>2.398376243736706</v>
+        <v>2.403875010930231</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.498485060055401</v>
+        <v>-6.498236306301409</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.60557573082751</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.54298507963978</v>
+        <v>-14.55182238405794</v>
       </c>
       <c r="F57" t="n">
-        <v>2.352710291424766</v>
+        <v>2.359099335211528</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.765685868752189</v>
+        <v>-6.765332376575462</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.94438642581031</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.29195326495252</v>
+        <v>-14.30134044609004</v>
       </c>
       <c r="F58" t="n">
-        <v>2.174026542240889</v>
+        <v>2.180677432084485</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.722088500289241</v>
+        <v>-6.721944484957982</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.26165222594114</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.91551028134437</v>
+        <v>-13.92523786235577</v>
       </c>
       <c r="F59" t="n">
-        <v>2.22288701644621</v>
+        <v>2.230349629065994</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.859688603155782</v>
+        <v>-6.859243464859164</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.56303648174154</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.8015286928043</v>
+        <v>-13.81189779665495</v>
       </c>
       <c r="F60" t="n">
-        <v>2.042265606441757</v>
+        <v>2.049728219061541</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.821328155829525</v>
+        <v>-6.821354340435208</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-12.84594225788156</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.4735141374077</v>
+        <v>-13.4837130413214</v>
       </c>
       <c r="F61" t="n">
-        <v>1.920402451590971</v>
+        <v>1.927969802633489</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.149473634254547</v>
+        <v>-7.150377003150626</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-13.10745545244303</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.1700083729308</v>
+        <v>-13.18126775337469</v>
       </c>
       <c r="F62" t="n">
-        <v>1.840591773467809</v>
+        <v>1.848525708989895</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.193280479562962</v>
+        <v>-7.193097187323178</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.35648533414541</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.84241277122513</v>
+        <v>-12.85377689009175</v>
       </c>
       <c r="F63" t="n">
-        <v>1.772276137239682</v>
+        <v>1.780157703550401</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.311726543372058</v>
+        <v>-7.312459712331195</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.58200284583369</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.59732486202802</v>
+        <v>-12.60931741143104</v>
       </c>
       <c r="F64" t="n">
-        <v>1.655807011159687</v>
+        <v>1.664002792738608</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.500059319750288</v>
+        <v>-7.498894104797374</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-13.79733822802412</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.38482369460397</v>
+        <v>-12.39707809006382</v>
       </c>
       <c r="F65" t="n">
-        <v>1.583458945656309</v>
+        <v>1.589769435626021</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.730104172982256</v>
+        <v>-7.730235096010674</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-13.99009188539991</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.14823268995113</v>
+        <v>-12.1607096545593</v>
       </c>
       <c r="F66" t="n">
-        <v>1.514410140469046</v>
+        <v>1.520746815044441</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.853106358180272</v>
+        <v>-7.852360096918295</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-14.17052759962731</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.96728397237564</v>
+        <v>-11.97989186001222</v>
       </c>
       <c r="F67" t="n">
-        <v>1.559002523947965</v>
+        <v>1.567879105274655</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.814942295396641</v>
+        <v>-7.815479079813152</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-14.32985590052409</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.87583423702618</v>
+        <v>-11.88888726295938</v>
       </c>
       <c r="F68" t="n">
-        <v>1.424544573763438</v>
+        <v>1.431719155720704</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.830731612623762</v>
+        <v>-7.829998443664627</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-14.46934742730641</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.72679146147597</v>
+        <v>-11.73994922583191</v>
       </c>
       <c r="F69" t="n">
-        <v>1.308651509008479</v>
+        <v>1.31776375178632</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.903341524183976</v>
+        <v>-7.902608355224839</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-14.59089594346208</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.62447511476788</v>
+        <v>-11.63851006341421</v>
       </c>
       <c r="F70" t="n">
-        <v>1.356909737283081</v>
+        <v>1.36547210334157</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.845774668588906</v>
+        <v>-7.844661822847359</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-14.68289173061515</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.35782418279045</v>
+        <v>-11.37144017774584</v>
       </c>
       <c r="F71" t="n">
-        <v>1.295114067870134</v>
+        <v>1.303846633865565</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.704993136131826</v>
+        <v>-7.702230660232222</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-14.75699713434548</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.30201169577617</v>
+        <v>-11.31548367540031</v>
       </c>
       <c r="F72" t="n">
-        <v>1.347928417533657</v>
+        <v>1.356176568323944</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.70639401253589</v>
+        <v>-7.704325428686897</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-14.79813738375779</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.28183645709707</v>
+        <v>-11.29204845331362</v>
       </c>
       <c r="F73" t="n">
-        <v>1.321141565919485</v>
+        <v>1.329415901315456</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.593420531314636</v>
+        <v>-7.589663040399061</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-14.81907625153103</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.47723907700983</v>
+        <v>-11.48751653474059</v>
       </c>
       <c r="F74" t="n">
-        <v>1.368745179052002</v>
+        <v>1.376757668391138</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.477880958736404</v>
+        <v>-7.474843544477123</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-14.80787131169878</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.60574002940137</v>
+        <v>-11.6160698563435</v>
       </c>
       <c r="F75" t="n">
-        <v>1.300599742760817</v>
+        <v>1.308625324402795</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.346342592085581</v>
+        <v>-7.343959792968388</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-14.7752274951984</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.94498778063618</v>
+        <v>-11.95442733098506</v>
       </c>
       <c r="F76" t="n">
-        <v>1.327425871283514</v>
+        <v>1.334940853114665</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.153990478734943</v>
+        <v>-7.149905680248324</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-14.72138535736519</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.55836216877105</v>
+        <v>-12.567382765429</v>
       </c>
       <c r="F77" t="n">
-        <v>1.30092705033186</v>
+        <v>1.308651509008479</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.980294896933763</v>
+        <v>-6.977493144125633</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-14.64361904086851</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.0888360953121</v>
+        <v>-13.09743773827912</v>
       </c>
       <c r="F78" t="n">
-        <v>1.328420886299485</v>
+        <v>1.336407191032938</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.84010251810456</v>
+        <v>-6.839015856968697</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-14.55298466999778</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.58449758859701</v>
+        <v>-13.59302067774697</v>
       </c>
       <c r="F79" t="n">
-        <v>1.388409817920274</v>
+        <v>1.396239015019626</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.663173137501474</v>
+        <v>-6.662976752958848</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-14.43841359470395</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.14289739709947</v>
+        <v>-14.1513157478267</v>
       </c>
       <c r="F80" t="n">
-        <v>1.377438468138908</v>
+        <v>1.384141727193871</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.398224204893463</v>
+        <v>-6.397058989940549</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-14.31430579861973</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.92750601410127</v>
+        <v>-14.93578034949724</v>
       </c>
       <c r="F81" t="n">
-        <v>1.439103214523437</v>
+        <v>1.446225427269336</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.281427771242425</v>
+        <v>-6.280930263734439</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-14.16775510797159</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.6822510883211</v>
+        <v>-15.69023739305455</v>
       </c>
       <c r="F82" t="n">
-        <v>1.473745447842645</v>
+        <v>1.48016067623509</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.196720571856457</v>
+        <v>-6.196026679805846</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-14.01083580247331</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.5507944588412</v>
+        <v>-16.55887240969455</v>
       </c>
       <c r="F83" t="n">
-        <v>1.42941491042056</v>
+        <v>1.436144354081207</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.937545344801648</v>
+        <v>-5.936471775968626</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-13.83711911802071</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.62184956971713</v>
+        <v>-17.62973113602785</v>
       </c>
       <c r="F84" t="n">
-        <v>1.515248047850916</v>
+        <v>1.521139584129693</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.747850968927879</v>
+        <v>-5.747641492082412</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-13.64919690583436</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.43416149953202</v>
+        <v>-18.44189905051148</v>
       </c>
       <c r="F85" t="n">
-        <v>1.506031066650341</v>
+        <v>1.51231537201437</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.538858538665406</v>
+        <v>-5.539434599990442</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-13.45235815826833</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.52036440479582</v>
+        <v>-19.5287958478259</v>
       </c>
       <c r="F86" t="n">
-        <v>1.501841529740989</v>
+        <v>1.508021096682283</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.242592817659987</v>
+        <v>-5.242710648385562</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-13.23889868964145</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.57957098159999</v>
+        <v>-20.58808097844711</v>
       </c>
       <c r="F87" t="n">
-        <v>1.529099704257462</v>
+        <v>1.53302739510998</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.972459333126653</v>
+        <v>-4.971555964230574</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-13.02203067137596</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.94233569209241</v>
+        <v>-21.95061002748838</v>
       </c>
       <c r="F88" t="n">
-        <v>1.580342977579978</v>
+        <v>1.584741991334798</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.659880602780443</v>
+        <v>-4.659893695083285</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-12.79075265715343</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.41096476336304</v>
+        <v>-23.41825717604588</v>
       </c>
       <c r="F89" t="n">
-        <v>1.372175362396534</v>
+        <v>1.377412283533224</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.321195820567831</v>
+        <v>-4.320711405362688</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-12.55855325570475</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.90004401167243</v>
+        <v>-24.90711385520697</v>
       </c>
       <c r="F90" t="n">
-        <v>1.224808401610065</v>
+        <v>1.229312153787619</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.126225246648847</v>
+        <v>-4.126644200339782</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-12.31502853647326</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.55425647572452</v>
+        <v>-26.56122158083632</v>
       </c>
       <c r="F91" t="n">
-        <v>1.060591647066295</v>
+        <v>1.064637168644388</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.088532506767518</v>
+        <v>-4.088244476104999</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-12.06674151407544</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.25748652161603</v>
+        <v>-28.26322095026071</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9766699858508309</v>
+        <v>0.9802834614351473</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.84310419769652</v>
+        <v>-3.842554320977168</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-11.8107493757049</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.15165471215128</v>
+        <v>-30.15689163328797</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8539427390124907</v>
+        <v>0.8573860146598646</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.885994581806015</v>
+        <v>-3.884855551458785</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-11.5384751819566</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.29431481062248</v>
+        <v>-32.29883165510288</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7631607111079621</v>
+        <v>0.7663421406985016</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.924341936829431</v>
+        <v>-3.922705398974215</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-11.2551016177768</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.38749909665481</v>
+        <v>-34.39132204908459</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3519314788493463</v>
+        <v>0.3551914622569362</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.928557658344467</v>
+        <v>-3.926724735946625</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-10.94597226805967</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.4068427946598</v>
+        <v>-36.41011587037022</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07038150623802726</v>
+        <v>0.07428301248486163</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.104439654720214</v>
+        <v>-4.103012593710466</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.62315577080761</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.54187008057427</v>
+        <v>-38.54463255647387</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2556692037323187</v>
+        <v>-0.2523830357190455</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.192511575936506</v>
+        <v>-4.190076407607945</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.27324985108476</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.88922833397586</v>
+        <v>-40.8905899334714</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5198195058669839</v>
+        <v>-0.5159310919229912</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.399212853201677</v>
+        <v>-4.396699131056065</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.917111717543506</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.31418466632037</v>
+        <v>-43.31504875830792</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4363953521595054</v>
+        <v>-0.4325462151240379</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.718573396419901</v>
+        <v>-4.716164412697023</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.550291598431494</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79975836082206</v>
+        <v>-45.79971908391353</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5787086840490677</v>
+        <v>-0.5762735157205067</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.964263551547733</v>
+        <v>-4.961160675774243</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-9.20166675956418</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.2028898243294</v>
+        <v>-48.20279817820951</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.6067916736445702</v>
+        <v>-0.6033222133915127</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.323306864679228</v>
+        <v>-5.319287527706818</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.865258543383433</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.49603285166341</v>
+        <v>-50.4950902058588</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7303830124704642</v>
+        <v>-0.7271753982742414</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.641567654458747</v>
+        <v>-5.637993455782956</v>
       </c>
     </row>
   </sheetData>
